--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H2">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I2">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J2">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>3.198251232241001</v>
+        <v>2.2533219755445</v>
       </c>
       <c r="R2">
-        <v>12.793004928964</v>
+        <v>9.013287902178</v>
       </c>
       <c r="S2">
-        <v>0.009301470531422084</v>
+        <v>0.03695752923744222</v>
       </c>
       <c r="T2">
-        <v>0.007484599616056184</v>
+        <v>0.03324782758275668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H3">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I3">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J3">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>0.09979470951416666</v>
+        <v>0.07360841594750001</v>
       </c>
       <c r="R3">
-        <v>0.598768257085</v>
+        <v>0.441650495685</v>
       </c>
       <c r="S3">
-        <v>0.0002902328436179282</v>
+        <v>0.001207277616792503</v>
       </c>
       <c r="T3">
-        <v>0.0003503118064887625</v>
+        <v>0.00162914129580013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H4">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I4">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J4">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>0.05732996690149999</v>
+        <v>0.0062869561405</v>
       </c>
       <c r="R4">
-        <v>0.3439798014089999</v>
+        <v>0.037721736843</v>
       </c>
       <c r="S4">
-        <v>0.000166732679511252</v>
+        <v>0.0001031145872177897</v>
       </c>
       <c r="T4">
-        <v>0.0002012467832110321</v>
+        <v>0.0001391463155609534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H5">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I5">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J5">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>0.06451662615749999</v>
+        <v>0.07337291703525001</v>
       </c>
       <c r="R5">
-        <v>0.25806650463</v>
+        <v>0.293491668141</v>
       </c>
       <c r="S5">
-        <v>0.0001876336326994157</v>
+        <v>0.001203415115991763</v>
       </c>
       <c r="T5">
-        <v>0.0001509828591637287</v>
+        <v>0.001082619404287493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H6">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I6">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J6">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>1.9918011701705</v>
+        <v>0.03763282047</v>
       </c>
       <c r="R6">
-        <v>11.950807021023</v>
+        <v>0.22579692282</v>
       </c>
       <c r="S6">
-        <v>0.005792753146478542</v>
+        <v>0.0006172291744819813</v>
       </c>
       <c r="T6">
-        <v>0.00699186830129314</v>
+        <v>0.0008329099480803557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0572405</v>
+        <v>0.0422205</v>
       </c>
       <c r="H7">
-        <v>0.114481</v>
+        <v>0.084441</v>
       </c>
       <c r="I7">
-        <v>0.01596612258633864</v>
+        <v>0.0404578008190803</v>
       </c>
       <c r="J7">
-        <v>0.01545336076613875</v>
+        <v>0.03742990287578287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>0.07815556813466668</v>
+        <v>0.022512477246</v>
       </c>
       <c r="R7">
-        <v>0.4689334088080001</v>
+        <v>0.135074863476</v>
       </c>
       <c r="S7">
-        <v>0.0002272997526094203</v>
+        <v>0.0003692350871540448</v>
       </c>
       <c r="T7">
-        <v>0.0002743513999259049</v>
+        <v>0.0004982583292972633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H8">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I8">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J8">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>9.433715741198666</v>
+        <v>9.011010768140666</v>
       </c>
       <c r="R8">
-        <v>56.602294447192</v>
+        <v>54.066064608844</v>
       </c>
       <c r="S8">
-        <v>0.02743606508582123</v>
+        <v>0.1477927688704994</v>
       </c>
       <c r="T8">
-        <v>0.03311540280330837</v>
+        <v>0.1994365667337282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H9">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I9">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J9">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
-        <v>0.2943592775144444</v>
+        <v>0.2943592775144445</v>
       </c>
       <c r="R9">
         <v>2.64923349763</v>
       </c>
       <c r="S9">
-        <v>0.000856084762150725</v>
+        <v>0.004827890431603172</v>
       </c>
       <c r="T9">
-        <v>0.001549944843241018</v>
+        <v>0.00977237823884239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,43 +1042,43 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H10">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I10">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J10">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>0.1691032292113333</v>
+        <v>0.02514147116822222</v>
       </c>
       <c r="R10">
-        <v>1.521929062901999</v>
+        <v>0.226273240514</v>
       </c>
       <c r="S10">
-        <v>0.000491802735013847</v>
+        <v>0.0004123541446167969</v>
       </c>
       <c r="T10">
-        <v>0.0008904107942670447</v>
+        <v>0.0008346669682417667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1104,13 +1104,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H11">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I11">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J11">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>0.1903013451899999</v>
+        <v>0.293417519853</v>
       </c>
       <c r="R11">
-        <v>1.14180807114</v>
+        <v>1.760505119118</v>
       </c>
       <c r="S11">
-        <v>0.0005534531923355119</v>
+        <v>0.00481244433171813</v>
       </c>
       <c r="T11">
-        <v>0.0006680194605034332</v>
+        <v>0.00649407533568873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1166,13 +1166,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H12">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I12">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J12">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>5.875112581199333</v>
+        <v>0.1504932513733333</v>
       </c>
       <c r="R12">
-        <v>52.87601323079399</v>
+        <v>1.35443926236</v>
       </c>
       <c r="S12">
-        <v>0.01708658344032644</v>
+        <v>0.002468292946161732</v>
       </c>
       <c r="T12">
-        <v>0.03093532680736889</v>
+        <v>0.004996197120850839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>0.1688393333333333</v>
       </c>
       <c r="H13">
-        <v>0.5065179999999999</v>
+        <v>0.506518</v>
       </c>
       <c r="I13">
-        <v>0.047094443504087</v>
+        <v>0.161790317936223</v>
       </c>
       <c r="J13">
-        <v>0.06837296484607112</v>
+        <v>0.2245226790875971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>0.2305314247804444</v>
+        <v>0.09002715860533334</v>
       </c>
       <c r="R13">
-        <v>2.074782823024</v>
+        <v>0.8102444274480001</v>
       </c>
       <c r="S13">
-        <v>0.0006704542884392364</v>
+        <v>0.001476567211623835</v>
       </c>
       <c r="T13">
-        <v>0.001213860137382356</v>
+        <v>0.002988794690245156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H14">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I14">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J14">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>183.823191918808</v>
+        <v>44.431279225461</v>
       </c>
       <c r="R14">
-        <v>735.2927676752321</v>
+        <v>177.725116901844</v>
       </c>
       <c r="S14">
-        <v>0.5346127863215647</v>
+        <v>0.7287330966694799</v>
       </c>
       <c r="T14">
-        <v>0.43018602722266</v>
+        <v>0.6555847442141418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H15">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I15">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J15">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>5.735816453246667</v>
+        <v>1.451419778355</v>
       </c>
       <c r="R15">
-        <v>34.41489871948</v>
+        <v>8.708518670129999</v>
       </c>
       <c r="S15">
-        <v>0.01668146866502937</v>
+        <v>0.0238052481964522</v>
       </c>
       <c r="T15">
-        <v>0.02013457660437968</v>
+        <v>0.03212360798724009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H16">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I16">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J16">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>3.295106213731999</v>
+        <v>0.123966972669</v>
       </c>
       <c r="R16">
-        <v>19.77063728239199</v>
+        <v>0.743801836014</v>
       </c>
       <c r="S16">
-        <v>0.009583153767272416</v>
+        <v>0.002033226084250421</v>
       </c>
       <c r="T16">
-        <v>0.0115668918314847</v>
+        <v>0.002743704125278805</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H17">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I17">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J17">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>3.70816777386</v>
+        <v>1.4467761819045</v>
       </c>
       <c r="R17">
-        <v>14.83267109544</v>
+        <v>5.787104727618</v>
       </c>
       <c r="S17">
-        <v>0.01078446024703314</v>
+        <v>0.02372908693168453</v>
       </c>
       <c r="T17">
-        <v>0.008677914610559613</v>
+        <v>0.02134722226510761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H18">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I18">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J18">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>114.481077995804</v>
+        <v>0.74204857206</v>
       </c>
       <c r="R18">
-        <v>686.886467974824</v>
+        <v>4.45229143236</v>
       </c>
       <c r="S18">
-        <v>0.3329451928756934</v>
+        <v>0.01217060060441775</v>
       </c>
       <c r="T18">
-        <v>0.4018657245131608</v>
+        <v>0.01642342056504373</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.289964</v>
+        <v>0.8325089999999999</v>
       </c>
       <c r="H19">
-        <v>6.579928</v>
+        <v>1.665018</v>
       </c>
       <c r="I19">
-        <v>0.9176713782835759</v>
+        <v>0.7977518812446966</v>
       </c>
       <c r="J19">
-        <v>0.8881997990864671</v>
+        <v>0.7380474180366201</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>4.492081752650667</v>
+        <v>0.443903788908</v>
       </c>
       <c r="R19">
-        <v>26.952490515904</v>
+        <v>2.663422733448</v>
       </c>
       <c r="S19">
-        <v>0.0130643164069828</v>
+        <v>0.007280622758411828</v>
       </c>
       <c r="T19">
-        <v>0.01576866430422218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H20">
-        <v>0.207235</v>
-      </c>
-      <c r="I20">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J20">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>55.87392200000001</v>
-      </c>
-      <c r="N20">
-        <v>111.747844</v>
-      </c>
-      <c r="O20">
-        <v>0.5825754174893317</v>
-      </c>
-      <c r="P20">
-        <v>0.4843347495294592</v>
-      </c>
-      <c r="Q20">
-        <v>3.859677408556668</v>
-      </c>
-      <c r="R20">
-        <v>23.15806445134</v>
-      </c>
-      <c r="S20">
-        <v>0.0112250955505237</v>
-      </c>
-      <c r="T20">
-        <v>0.01354871988743463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H21">
-        <v>0.207235</v>
-      </c>
-      <c r="I21">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J21">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.743428333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.230285</v>
-      </c>
-      <c r="O21">
-        <v>0.01817804179120264</v>
-      </c>
-      <c r="P21">
-        <v>0.02266897225724272</v>
-      </c>
-      <c r="Q21">
-        <v>0.1204331235527778</v>
-      </c>
-      <c r="R21">
-        <v>1.083898111975</v>
-      </c>
-      <c r="S21">
-        <v>0.0003502555204046165</v>
-      </c>
-      <c r="T21">
-        <v>0.0006341390031332596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.207235</v>
-      </c>
-      <c r="I22">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J22">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.001563</v>
-      </c>
-      <c r="N22">
-        <v>3.004688999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.0104429036298341</v>
-      </c>
-      <c r="P22">
-        <v>0.01302284896189067</v>
-      </c>
-      <c r="Q22">
-        <v>0.06918630276833332</v>
-      </c>
-      <c r="R22">
-        <v>0.6226767249149999</v>
-      </c>
-      <c r="S22">
-        <v>0.0002012144480365844</v>
-      </c>
-      <c r="T22">
-        <v>0.0003642995529278941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.207235</v>
-      </c>
-      <c r="I23">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J23">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.127115</v>
-      </c>
-      <c r="N23">
-        <v>2.25423</v>
-      </c>
-      <c r="O23">
-        <v>0.01175198497222887</v>
-      </c>
-      <c r="P23">
-        <v>0.009770228071977768</v>
-      </c>
-      <c r="Q23">
-        <v>0.07785922567499999</v>
-      </c>
-      <c r="R23">
-        <v>0.46715535405</v>
-      </c>
-      <c r="S23">
-        <v>0.0002264379001608034</v>
-      </c>
-      <c r="T23">
-        <v>0.0002733111417509921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.207235</v>
-      </c>
-      <c r="I24">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J24">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>34.797061</v>
-      </c>
-      <c r="N24">
-        <v>104.391183</v>
-      </c>
-      <c r="O24">
-        <v>0.3628152743506486</v>
-      </c>
-      <c r="P24">
-        <v>0.4524496908538918</v>
-      </c>
-      <c r="Q24">
-        <v>2.403722978778334</v>
-      </c>
-      <c r="R24">
-        <v>21.633506809005</v>
-      </c>
-      <c r="S24">
-        <v>0.006990744888150179</v>
-      </c>
-      <c r="T24">
-        <v>0.01265677123206894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.06907833333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.207235</v>
-      </c>
-      <c r="I25">
-        <v>0.01926805562599843</v>
-      </c>
-      <c r="J25">
-        <v>0.02797387530132306</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.365389333333334</v>
-      </c>
-      <c r="N25">
-        <v>4.096168</v>
-      </c>
-      <c r="O25">
-        <v>0.014236377766754</v>
-      </c>
-      <c r="P25">
-        <v>0.01775351032553778</v>
-      </c>
-      <c r="Q25">
-        <v>0.0943188194977778</v>
-      </c>
-      <c r="R25">
-        <v>0.8488693754800001</v>
-      </c>
-      <c r="S25">
-        <v>0.0002743073187225433</v>
-      </c>
-      <c r="T25">
-        <v>0.0004966344840073453</v>
+        <v>0.009824718879808039</v>
       </c>
     </row>
   </sheetData>
